--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK2 - NAM4\CNPMNC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7863ED7F-8469-4C59-A3B6-5EF8E34FA6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3541350B-4854-4EC7-9F1E-83950CEF7E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="798" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,9 +201,6 @@
     <t>Dat</t>
   </si>
   <si>
-    <t>Product Owner / Dev</t>
-  </si>
-  <si>
     <t>ScrumMaster / Dev</t>
   </si>
   <si>
@@ -215,6 +212,9 @@
 Website bán hàng trực tuyến của Phone Hub là loại hình kinh doanh qua mạng bằng cách xây dựng một trang web bán hàng để mọi người có thể vào đó xem các sản phẩm mà Phone Hub phân phối, có thể lựa chọn sản phẩm để mua hàng.
 Với trang web bán hàng trực tuyến, nhà kinh doanh sẽ đưa thông tin của các thiết bị di động lên trang web của mình. Việc đưa thông tin lên cũng phải theo một trật tự hợp lý, đảm bảo tính thẩm mỹ, khoa học.
 </t>
+  </si>
+  <si>
+    <t>Product Owner / Dev / Tester</t>
   </si>
 </sst>
 </file>
@@ -926,7 +926,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1186,7 +1186,7 @@
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="253" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1231,7 +1231,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E4" s="20">
         <v>44974</v>
@@ -1249,7 +1249,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="20">
         <v>44974</v>
@@ -1267,7 +1267,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="20">
         <v>44974</v>
@@ -1633,7 +1633,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK2 - NAM4\CNPMNC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SV\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3541350B-4854-4EC7-9F1E-83950CEF7E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="798" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" tabRatio="798" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Project Information" sheetId="7" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Product backlog" sheetId="1" r:id="rId3"/>
     <sheet name="Sprint backlog" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>I. Requirements</t>
   </si>
@@ -214,14 +213,62 @@
 </t>
   </si>
   <si>
-    <t>Product Owner / Dev / Tester</t>
+    <t>Dev / Tester</t>
+  </si>
+  <si>
+    <t>Trang chủ</t>
+  </si>
+  <si>
+    <t>Quản lý sản phẩm</t>
+  </si>
+  <si>
+    <t>Quản lý khách hàng</t>
+  </si>
+  <si>
+    <t>Liên hệ</t>
+  </si>
+  <si>
+    <t>Đăng ký / Đăng nhập</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Thêm giỏ hàng</t>
+  </si>
+  <si>
+    <t>Xem sản phẩm / Chi tiết sp</t>
+  </si>
+  <si>
+    <t>Thanh toán</t>
+  </si>
+  <si>
+    <t>Quản lý đơn hàng</t>
+  </si>
+  <si>
+    <t>Tìm kiếm sản phẩm</t>
+  </si>
+  <si>
+    <t>Chat với sale</t>
+  </si>
+  <si>
+    <t>Xem đơn hàng / lịch sử đặt hàng</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Thống kê</t>
+  </si>
+  <si>
+    <t>Xem sửa thông tin cá nhân</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -245,13 +292,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
@@ -259,7 +299,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,12 +309,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,20 +472,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -470,13 +499,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -487,9 +516,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,8 +523,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -910,7 +935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -920,249 +945,249 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1174,11 +1199,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1191,91 +1216,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="19">
+        <v>44974</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E5" s="19">
         <v>44974</v>
       </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E6" s="19">
         <v>44974</v>
       </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="20">
-        <v>44974</v>
-      </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -1287,12 +1312,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1303,40 +1328,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="11"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <f>SUM(C7:C32)</f>
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1356,7 +1381,7 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>4</v>
       </c>
     </row>
@@ -1364,10 +1389,10 @@
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>2</v>
       </c>
     </row>
@@ -1375,10 +1400,10 @@
       <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>2</v>
       </c>
     </row>
@@ -1386,10 +1411,10 @@
       <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>4</v>
       </c>
     </row>
@@ -1397,10 +1422,10 @@
       <c r="A11" s="2">
         <v>6</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>4</v>
       </c>
     </row>
@@ -1408,28 +1433,28 @@
       <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>2</v>
       </c>
     </row>
@@ -1437,10 +1462,10 @@
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>2</v>
       </c>
     </row>
@@ -1448,10 +1473,10 @@
       <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>6</v>
       </c>
     </row>
@@ -1459,10 +1484,10 @@
       <c r="A17" s="2">
         <v>11</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>2</v>
       </c>
     </row>
@@ -1470,10 +1495,10 @@
       <c r="A18" s="2">
         <v>12</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>4</v>
       </c>
     </row>
@@ -1481,28 +1506,28 @@
       <c r="A19" s="2">
         <v>13</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>14</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>2</v>
       </c>
     </row>
@@ -1510,10 +1535,10 @@
       <c r="A22" s="2">
         <v>15</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>4</v>
       </c>
     </row>
@@ -1521,10 +1546,10 @@
       <c r="A23" s="2">
         <v>16</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>6</v>
       </c>
     </row>
@@ -1532,28 +1557,28 @@
       <c r="A24" s="2">
         <v>17</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>19</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <v>6</v>
       </c>
     </row>
@@ -1561,10 +1586,10 @@
       <c r="A27" s="2">
         <v>20</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <v>4</v>
       </c>
     </row>
@@ -1572,10 +1597,10 @@
       <c r="A28" s="2">
         <v>21</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <v>6</v>
       </c>
     </row>
@@ -1583,10 +1608,10 @@
       <c r="A29" s="2">
         <v>22</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="13">
         <v>4</v>
       </c>
     </row>
@@ -1594,28 +1619,28 @@
       <c r="A30" s="2">
         <v>23</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="12"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>24</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="13">
         <v>6</v>
       </c>
     </row>
@@ -1628,12 +1653,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1651,239 +1676,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="11"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="B3" s="10"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8">
         <f>SUM(C7:C11)</f>
         <v>16</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="str">
-        <f>VLOOKUP(A7,'Product backlog'!$A$6:$B$32,2,0)</f>
-        <v>View HomePage</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="8">
         <f>VLOOKUP(A7,'Product backlog'!$A$6:$C$32,3,0)</f>
         <v>4</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="str">
-        <f>VLOOKUP(A8,'Product backlog'!$A$6:$B$32,2,0)</f>
-        <v>View Product list</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="8">
         <f>VLOOKUP(A8,'Product backlog'!$A$6:$C$32,3,0)</f>
         <v>4</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="str">
-        <f>VLOOKUP(A9,'Product backlog'!$A$6:$B$32,2,0)</f>
-        <v>View Product details</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="8">
         <f>VLOOKUP(A9,'Product backlog'!$A$6:$C$32,3,0)</f>
         <v>2</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>4</v>
-      </c>
-      <c r="B10" s="9" t="str">
-        <f>VLOOKUP(A10,'Product backlog'!$A$6:$B$32,2,0)</f>
-        <v>View Product Compare</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="A10" s="8">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="8">
         <f>VLOOKUP(A10,'Product backlog'!$A$6:$C$32,3,0)</f>
         <v>2</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>5</v>
       </c>
-      <c r="B11" s="9" t="str">
-        <f>VLOOKUP(A11,'Product backlog'!$A$6:$B$32,2,0)</f>
-        <v>Manage Shopping Cart (Add, Increase, Decrease, Remove)</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="8">
         <f>VLOOKUP(A11,'Product backlog'!$A$6:$C$32,3,0)</f>
         <v>4</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>6</v>
       </c>
-      <c r="B12" s="9" t="str">
-        <f>VLOOKUP(A12,'Product backlog'!$A$6:$B$32,2,0)</f>
-        <v>Registration</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="8">
         <f>VLOOKUP(A12,'Product backlog'!$A$6:$C$32,3,0)</f>
         <v>4</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>7</v>
       </c>
-      <c r="B13" s="9" t="str">
-        <f>VLOOKUP(A13,'Product backlog'!$A$6:$B$32,2,0)</f>
-        <v>Chat with Sale</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8">
         <f>VLOOKUP(A13,'Product backlog'!$A$6:$C$32,3,0)</f>
         <v>4</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
+      <c r="A14" s="27" t="s">
+        <v>64</v>
+      </c>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -1894,11 +1912,243 @@
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="8">
+        <f>VLOOKUP(A15,'Product backlog'!$A$6:$C$32,3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>2</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="8">
+        <f>VLOOKUP(A16,'Product backlog'!$A$6:$C$32,3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>3</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="8">
+        <f>VLOOKUP(A17,'Product backlog'!$A$6:$C$32,3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="8">
+        <f>VLOOKUP(A18,'Product backlog'!$A$6:$C$32,3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>5</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="8">
+        <f>VLOOKUP(A19,'Product backlog'!$A$6:$C$32,3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>6</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="8">
+        <f>VLOOKUP(A20,'Product backlog'!$A$6:$C$32,3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>1</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="8">
+        <f>VLOOKUP(A22,'Product backlog'!$A$6:$C$32,3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>2</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="8">
+        <f>VLOOKUP(A23,'Product backlog'!$A$6:$C$32,3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>3</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8">
+        <f>VLOOKUP(A24,'Product backlog'!$A$6:$C$32,3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>4</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8">
+        <f>VLOOKUP(A25,'Product backlog'!$A$6:$C$32,3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>5</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8">
+        <f>VLOOKUP(A26,'Product backlog'!$A$6:$C$32,3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>6</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8">
+        <f>VLOOKUP(A27,'Product backlog'!$A$6:$C$32,3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A21:J21"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="E3:F3"/>
